--- a/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 10 (42, 52, 20, 51, 40)/NODE_11nodes_Uniform0.05Virtual_Control(10, 5)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize100_200maxITER_StandardizeAll_smoothing0_dropout0.0.xlsx
+++ b/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 10 (42, 52, 20, 51, 40)/NODE_11nodes_Uniform0.05Virtual_Control(10, 5)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize100_200maxITER_StandardizeAll_smoothing0_dropout0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Iterations</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Success %</t>
+  </si>
+  <si>
+    <t>Label</t>
   </si>
   <si>
     <t>Control 10</t>
@@ -410,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +438,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -452,10 +458,13 @@
       <c r="E2">
         <v>0.2304909390658875</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -466,10 +475,13 @@
       <c r="E3">
         <v>0.4986172378861977</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -480,72 +492,87 @@
       <c r="E4">
         <v>0.4680409946369634</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3365347269999514</v>
+        <v>0.3365342032027794</v>
       </c>
       <c r="E5">
-        <v>0.6634652730000486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.6634657967972206</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3520094041416725</v>
+        <v>0.3520077757964291</v>
       </c>
       <c r="E6">
-        <v>0.6479905958583275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.6479922242035709</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3937343731824061</v>
+        <v>0.3937300113806252</v>
       </c>
       <c r="E7">
-        <v>0.6062656268175939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.6062699886193748</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06528522982175125</v>
+        <v>0.06528917699326589</v>
       </c>
       <c r="E8">
-        <v>0.9347147701782488</v>
+        <v>0.9347108230067341</v>
       </c>
       <c r="F8">
-        <v>1.05397093296051</v>
+        <v>1.053964734077454</v>
       </c>
       <c r="G8">
         <v>0.4285714285714285</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -559,10 +586,13 @@
       <c r="E9">
         <v>1.771336824613201E-07</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -573,10 +603,13 @@
       <c r="E10">
         <v>0.4986172378861977</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -587,10 +620,13 @@
       <c r="E11">
         <v>0.4680409946369634</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -601,10 +637,13 @@
       <c r="E12">
         <v>0.6206078460004798</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -615,10 +654,13 @@
       <c r="E13">
         <v>0.6082839209606694</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -629,10 +671,13 @@
       <c r="E14">
         <v>0.6283484217475965</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -648,6 +693,9 @@
       </c>
       <c r="G15">
         <v>0.4285714285714285</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
